--- a/cs5870/project/LeNetTuning.xlsx
+++ b/cs5870/project/LeNetTuning.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\uccs.edu\cs5870\project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
   <si>
     <t>conv</t>
   </si>
@@ -381,7 +376,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -389,15 +384,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>120</v>
       </c>
@@ -407,8 +402,26 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
+      <c r="K1">
+        <v>105</v>
+      </c>
+      <c r="L1" s="2">
+        <v>105</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1">
+        <v>256</v>
+      </c>
+      <c r="R1" s="2">
+        <v>256</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,8 +442,42 @@
         <f>F1-C2+1</f>
         <v>96</v>
       </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <f>K1-H2+1</f>
+        <v>105</v>
+      </c>
+      <c r="L2">
+        <f>L1-I2+1</f>
+        <v>96</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>65</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <f>Q1-N2+1</f>
+        <v>256</v>
+      </c>
+      <c r="R2">
+        <f>R1-O2+1</f>
+        <v>192</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -454,8 +501,48 @@
       <c r="G3" t="s">
         <v>3</v>
       </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <f>K2/H3</f>
+        <v>105</v>
+      </c>
+      <c r="L3" s="2">
+        <f>L2/I3</f>
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>8</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <f>Q2/N3</f>
+        <v>256</v>
+      </c>
+      <c r="R3" s="2">
+        <f>R2/O3</f>
+        <v>24</v>
+      </c>
+      <c r="S3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,8 +563,42 @@
         <f>F3-C4+1</f>
         <v>16</v>
       </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <f>K3-H4+1</f>
+        <v>105</v>
+      </c>
+      <c r="L4">
+        <f>L3-I4+1</f>
+        <v>16</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>9</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4">
+        <f>Q3-N4+1</f>
+        <v>256</v>
+      </c>
+      <c r="R4">
+        <f>R3-O4+1</f>
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -499,6 +620,46 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <f>K4/H5</f>
+        <v>105</v>
+      </c>
+      <c r="L5" s="2">
+        <f>L4/I5</f>
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>2</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5">
+        <f>Q4/N5</f>
+        <v>256</v>
+      </c>
+      <c r="R5" s="2">
+        <f>R4/O5</f>
+        <v>8</v>
+      </c>
+      <c r="S5" t="s">
         <v>4</v>
       </c>
     </row>
